--- a/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Loinc CodeSystem" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -154,7 +154,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Loinc CodeSystem" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -154,7 +154,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
